--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853F31AF-0884-4212-862F-B1F4D9CC53FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594F0FF-6112-40DD-BA68-9E27C5D84D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{BF520A09-7E4C-4BB9-9DCB-D8D3DF49E573}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{0ACFF1EF-C390-4327-BF27-BD7CB5DAE670}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25E6A3D-54F8-4C6C-8BD2-6B6046762925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEC7625-9AF0-41ED-AC22-1577C561ECA6}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1.0754023966251338</v>
+        <v>1.632453724330379E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594F0FF-6112-40DD-BA68-9E27C5D84D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DE5F6-9B07-4D47-BF65-8DE6EE9EF92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{0ACFF1EF-C390-4327-BF27-BD7CB5DAE670}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{29BFC319-3509-461C-B81F-7E61875D385A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEC7625-9AF0-41ED-AC22-1577C561ECA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAE3F47-A9F1-4AA1-AC7C-FDE40737DC08}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
